--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.813634</v>
+        <v>1.894424333333333</v>
       </c>
       <c r="H2">
-        <v>2.440902</v>
+        <v>5.683273</v>
       </c>
       <c r="I2">
-        <v>0.4058779337539379</v>
+        <v>0.6002819911800915</v>
       </c>
       <c r="J2">
-        <v>0.405877933753938</v>
+        <v>0.6002819911800916</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05883533333333333</v>
+        <v>0.04554333333333333</v>
       </c>
       <c r="N2">
-        <v>0.176506</v>
+        <v>0.13663</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.04787042760133333</v>
+        <v>0.08627839888777777</v>
       </c>
       <c r="R2">
-        <v>0.430833848412</v>
+        <v>0.77650558999</v>
       </c>
       <c r="S2">
-        <v>0.4058779337539379</v>
+        <v>0.6002819911800915</v>
       </c>
       <c r="T2">
-        <v>0.405877933753938</v>
+        <v>0.6002819911800916</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>3.028641</v>
       </c>
       <c r="I3">
-        <v>0.5036083182210759</v>
+        <v>0.3198928944728968</v>
       </c>
       <c r="J3">
-        <v>0.5036083182210759</v>
+        <v>0.3198928944728969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05883533333333333</v>
+        <v>0.04554333333333333</v>
       </c>
       <c r="N3">
-        <v>0.176506</v>
+        <v>0.13663</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.05939703426066668</v>
+        <v>0.04597813553666667</v>
       </c>
       <c r="R3">
-        <v>0.534573308346</v>
+        <v>0.4138032198300001</v>
       </c>
       <c r="S3">
-        <v>0.5036083182210759</v>
+        <v>0.3198928944728968</v>
       </c>
       <c r="T3">
-        <v>0.5036083182210759</v>
+        <v>0.3198928944728969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1139093333333333</v>
+        <v>0.1798433333333334</v>
       </c>
       <c r="H4">
-        <v>0.341728</v>
+        <v>0.5395300000000001</v>
       </c>
       <c r="I4">
-        <v>0.05682319673049787</v>
+        <v>0.05698655382231239</v>
       </c>
       <c r="J4">
-        <v>0.05682319673049788</v>
+        <v>0.05698655382231241</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05883533333333333</v>
+        <v>0.04554333333333333</v>
       </c>
       <c r="N4">
-        <v>0.176506</v>
+        <v>0.13663</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.006701893596444445</v>
+        <v>0.008190664877777778</v>
       </c>
       <c r="R4">
-        <v>0.06031704236800001</v>
+        <v>0.0737159839</v>
       </c>
       <c r="S4">
-        <v>0.05682319673049787</v>
+        <v>0.05698655382231239</v>
       </c>
       <c r="T4">
-        <v>0.05682319673049788</v>
+        <v>0.05698655382231241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.067537</v>
+        <v>0.07207599999999999</v>
       </c>
       <c r="H5">
-        <v>0.202611</v>
+        <v>0.216228</v>
       </c>
       <c r="I5">
-        <v>0.03369055129448831</v>
+        <v>0.0228385605246992</v>
       </c>
       <c r="J5">
-        <v>0.03369055129448831</v>
+        <v>0.02283856052469921</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05883533333333333</v>
+        <v>0.04554333333333333</v>
       </c>
       <c r="N5">
-        <v>0.176506</v>
+        <v>0.13663</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.003973561907333333</v>
+        <v>0.003282581293333333</v>
       </c>
       <c r="R5">
-        <v>0.035762057166</v>
+        <v>0.02954323164</v>
       </c>
       <c r="S5">
-        <v>0.03369055129448831</v>
+        <v>0.0228385605246992</v>
       </c>
       <c r="T5">
-        <v>0.03369055129448831</v>
+        <v>0.02283856052469921</v>
       </c>
     </row>
   </sheetData>
